--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC01421-E0A7-40F7-9B3F-F575F6F1B80C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F134E4B0-3A98-49DE-81CD-921C5F4C9A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3510" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNewCustomerData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -38,6 +40,195 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Customer Roles</t>
+  </si>
+  <si>
+    <t>Manager Of Vendor</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Admin Comment</t>
+  </si>
+  <si>
+    <t>Is tax exempt</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>aaalll</t>
+  </si>
+  <si>
+    <t>bkbkbk</t>
+  </si>
+  <si>
+    <t>dsafdf</t>
+  </si>
+  <si>
+    <t>adfae</t>
+  </si>
+  <si>
+    <t>ashuyj</t>
+  </si>
+  <si>
+    <t>Vendors</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>lkjhgf</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Lory</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>Becky</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>ABC Corp</t>
+  </si>
+  <si>
+    <t>DEC Ltd</t>
+  </si>
+  <si>
+    <t>Qa Ltd</t>
+  </si>
+  <si>
+    <t>REC Corp</t>
+  </si>
+  <si>
+    <t>Jam Groups</t>
+  </si>
+  <si>
+    <t>Tim Ltd</t>
+  </si>
+  <si>
+    <t>Placement Agency</t>
+  </si>
+  <si>
+    <t>IT Firm</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Manufacturing company</t>
+  </si>
+  <si>
+    <t>Consulting Firm</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Your store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Store </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>DOB(dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Not a vendor</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Forum Moderator</t>
+  </si>
+  <si>
+    <t>popaagkf@gmail.com</t>
+  </si>
+  <si>
+    <t>lklakjgdfdk@yahoo.com</t>
+  </si>
+  <si>
+    <t>oiuisdafag@rediff.com</t>
+  </si>
+  <si>
+    <t>kjksfdlkkdfhj@hotmail.com</t>
+  </si>
+  <si>
+    <t>hghyutibj@microsoft.com</t>
+  </si>
+  <si>
+    <t>iouidjgdksag@infoys.com</t>
   </si>
 </sst>
 </file>
@@ -69,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -105,11 +302,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -452,4 +659,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD817A0-0FEC-4AC3-82CC-C9A047D0BE24}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5">
+        <v>34703</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5">
+        <v>36651</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5">
+        <v>35890</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5">
+        <v>36349</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5">
+        <v>34335</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5">
+        <v>36658</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{72F2F268-6E4D-4274-9CA8-ADE5E98235CD}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{CD27D4C9-3362-4E31-A168-74E7A303E2A9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{3B54E102-8CEE-4B38-A8CD-4A2342A06402}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{7327053B-B4F9-4495-972B-DF969D718756}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{8F876B80-4F9C-4115-8A7C-F5E3C28F33A2}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{2AD30AD0-A919-44CF-9F0E-ED605120BFE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+</worksheet>
 </file>